--- a/src/output/results8.xlsx
+++ b/src/output/results8.xlsx
@@ -336,7 +336,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B365"/>
+  <dimension ref="A1:E365"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
@@ -346,498 +346,1056 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>5089.0</v>
+        <v>0.0</v>
       </c>
       <c r="B1" t="n">
-        <v>1183.0</v>
+        <v>0.0</v>
+      </c>
+      <c r="C1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D1" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E1" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>5020.0</v>
+        <v>0.0</v>
       </c>
       <c r="B2" t="n">
-        <v>1181.0</v>
+        <v>0.0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>4485.0</v>
+        <v>0.0</v>
       </c>
       <c r="B3" t="n">
-        <v>1418.0</v>
+        <v>0.0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>3904.0</v>
+        <v>1.0</v>
       </c>
       <c r="B4" t="n">
-        <v>1927.0</v>
+        <v>1.0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>3685.0</v>
+        <v>2.0</v>
       </c>
       <c r="B5" t="n">
-        <v>1975.0</v>
+        <v>2.0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>3360.0</v>
+        <v>5.0</v>
       </c>
       <c r="B6" t="n">
-        <v>1811.0</v>
+        <v>5.0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>3193.0</v>
+        <v>13.0</v>
       </c>
       <c r="B7" t="n">
-        <v>1610.0</v>
+        <v>13.0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>3067.0</v>
+        <v>19.0</v>
       </c>
       <c r="B8" t="n">
-        <v>1617.0</v>
+        <v>19.0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>2885.0</v>
+        <v>22.0</v>
       </c>
       <c r="B9" t="n">
-        <v>1414.0</v>
+        <v>22.0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>2798.0</v>
+        <v>29.0</v>
       </c>
       <c r="B10" t="n">
-        <v>1439.0</v>
+        <v>29.0</v>
+      </c>
+      <c r="C10" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>2781.0</v>
+        <v>44.0</v>
       </c>
       <c r="B11" t="n">
-        <v>1353.0</v>
+        <v>44.0</v>
+      </c>
+      <c r="C11" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>2755.0</v>
+        <v>54.0</v>
       </c>
       <c r="B12" t="n">
-        <v>1214.0</v>
+        <v>52.0</v>
+      </c>
+      <c r="C12" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>2660.0</v>
+        <v>66.0</v>
       </c>
       <c r="B13" t="n">
-        <v>1202.0</v>
+        <v>64.0</v>
+      </c>
+      <c r="C13" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E13" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>2651.0</v>
+        <v>80.0</v>
       </c>
       <c r="B14" t="n">
-        <v>1162.0</v>
+        <v>77.0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>2570.0</v>
+        <v>105.0</v>
       </c>
       <c r="B15" t="n">
-        <v>1174.0</v>
+        <v>101.0</v>
+      </c>
+      <c r="C15" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E15" t="n">
+        <v>4.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>2584.0</v>
+        <v>125.0</v>
       </c>
       <c r="B16" t="n">
-        <v>1179.0</v>
+        <v>118.0</v>
+      </c>
+      <c r="C16" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E16" t="n">
+        <v>7.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>2537.0</v>
+        <v>148.0</v>
       </c>
       <c r="B17" t="n">
-        <v>1174.0</v>
+        <v>137.0</v>
+      </c>
+      <c r="C17" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E17" t="n">
+        <v>11.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>2586.0</v>
+        <v>180.0</v>
       </c>
       <c r="B18" t="n">
-        <v>1140.0</v>
+        <v>164.0</v>
+      </c>
+      <c r="C18" t="n">
+        <v>32.0</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E18" t="n">
+        <v>16.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>2615.0</v>
+        <v>207.0</v>
       </c>
       <c r="B19" t="n">
-        <v>1108.0</v>
+        <v>181.0</v>
+      </c>
+      <c r="C19" t="n">
+        <v>27.0</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E19" t="n">
+        <v>26.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>2652.0</v>
+        <v>256.0</v>
       </c>
       <c r="B20" t="n">
-        <v>1109.0</v>
+        <v>223.0</v>
+      </c>
+      <c r="C20" t="n">
+        <v>49.0</v>
+      </c>
+      <c r="D20" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>32.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>2546.0</v>
+        <v>307.0</v>
       </c>
       <c r="B21" t="n">
-        <v>1134.0</v>
+        <v>266.0</v>
+      </c>
+      <c r="C21" t="n">
+        <v>51.0</v>
+      </c>
+      <c r="D21" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E21" t="n">
+        <v>40.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>2588.0</v>
+        <v>356.0</v>
       </c>
       <c r="B22" t="n">
-        <v>1063.0</v>
+        <v>302.0</v>
+      </c>
+      <c r="C22" t="n">
+        <v>49.0</v>
+      </c>
+      <c r="D22" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="E22" t="n">
+        <v>52.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>2494.0</v>
+        <v>393.0</v>
       </c>
       <c r="B23" t="n">
-        <v>1073.0</v>
+        <v>331.0</v>
+      </c>
+      <c r="C23" t="n">
+        <v>37.0</v>
+      </c>
+      <c r="D23" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>60.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>2524.0</v>
+        <v>449.0</v>
       </c>
       <c r="B24" t="n">
-        <v>1049.0</v>
+        <v>370.0</v>
+      </c>
+      <c r="C24" t="n">
+        <v>56.0</v>
+      </c>
+      <c r="D24" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="E24" t="n">
+        <v>76.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>2507.0</v>
+        <v>526.0</v>
       </c>
       <c r="B25" t="n">
-        <v>1091.0</v>
+        <v>432.0</v>
+      </c>
+      <c r="C25" t="n">
+        <v>77.0</v>
+      </c>
+      <c r="D25" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="E25" t="n">
+        <v>90.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>2603.0</v>
+        <v>593.0</v>
       </c>
       <c r="B26" t="n">
-        <v>1042.0</v>
+        <v>482.0</v>
+      </c>
+      <c r="C26" t="n">
+        <v>67.0</v>
+      </c>
+      <c r="D26" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="E26" t="n">
+        <v>107.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>2569.0</v>
+        <v>655.0</v>
       </c>
       <c r="B27" t="n">
-        <v>1045.0</v>
+        <v>523.0</v>
+      </c>
+      <c r="C27" t="n">
+        <v>62.0</v>
+      </c>
+      <c r="D27" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="E27" t="n">
+        <v>128.0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>2537.0</v>
+        <v>736.0</v>
       </c>
       <c r="B28" t="n">
-        <v>1088.0</v>
+        <v>572.0</v>
+      </c>
+      <c r="C28" t="n">
+        <v>81.0</v>
+      </c>
+      <c r="D28" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="E28" t="n">
+        <v>160.0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>2616.0</v>
+        <v>818.0</v>
       </c>
       <c r="B29" t="n">
-        <v>1064.0</v>
+        <v>616.0</v>
+      </c>
+      <c r="C29" t="n">
+        <v>82.0</v>
+      </c>
+      <c r="D29" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="E29" t="n">
+        <v>198.0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>2539.0</v>
+        <v>885.0</v>
       </c>
       <c r="B30" t="n">
-        <v>1105.0</v>
+        <v>648.0</v>
+      </c>
+      <c r="C30" t="n">
+        <v>67.0</v>
+      </c>
+      <c r="D30" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="E30" t="n">
+        <v>233.0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>2558.0</v>
+        <v>978.0</v>
       </c>
       <c r="B31" t="n">
-        <v>1125.0</v>
+        <v>711.0</v>
+      </c>
+      <c r="C31" t="n">
+        <v>93.0</v>
+      </c>
+      <c r="D31" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="E31" t="n">
+        <v>262.0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>3313.0</v>
+        <v>1070.0</v>
       </c>
       <c r="B32" t="n">
-        <v>1103.0</v>
+        <v>766.0</v>
+      </c>
+      <c r="C32" t="n">
+        <v>92.0</v>
+      </c>
+      <c r="D32" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="E32" t="n">
+        <v>299.0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>3320.0</v>
+        <v>1163.0</v>
       </c>
       <c r="B33" t="n">
-        <v>1004.0</v>
+        <v>812.0</v>
+      </c>
+      <c r="C33" t="n">
+        <v>93.0</v>
+      </c>
+      <c r="D33" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="E33" t="n">
+        <v>346.0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>3152.0</v>
+        <v>1253.0</v>
       </c>
       <c r="B34" t="n">
-        <v>1162.0</v>
+        <v>854.0</v>
+      </c>
+      <c r="C34" t="n">
+        <v>90.0</v>
+      </c>
+      <c r="D34" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="E34" t="n">
+        <v>393.0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>2970.0</v>
+        <v>1349.0</v>
       </c>
       <c r="B35" t="n">
-        <v>1330.0</v>
+        <v>899.0</v>
+      </c>
+      <c r="C35" t="n">
+        <v>96.0</v>
+      </c>
+      <c r="D35" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="E35" t="n">
+        <v>443.0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>4312.0</v>
+        <v>1467.0</v>
       </c>
       <c r="B36" t="n">
-        <v>1439.0</v>
+        <v>971.0</v>
+      </c>
+      <c r="C36" t="n">
+        <v>118.0</v>
+      </c>
+      <c r="D36" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="E36" t="n">
+        <v>487.0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>4275.0</v>
+        <v>1575.0</v>
       </c>
       <c r="B37" t="n">
-        <v>1353.0</v>
+        <v>1015.0</v>
+      </c>
+      <c r="C37" t="n">
+        <v>108.0</v>
+      </c>
+      <c r="D37" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="E37" t="n">
+        <v>551.0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>4620.0</v>
+        <v>1730.0</v>
       </c>
       <c r="B38" t="n">
-        <v>1533.0</v>
+        <v>1112.0</v>
+      </c>
+      <c r="C38" t="n">
+        <v>155.0</v>
+      </c>
+      <c r="D38" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="E38" t="n">
+        <v>607.0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>5345.0</v>
+        <v>1866.0</v>
       </c>
       <c r="B39" t="n">
-        <v>1739.0</v>
+        <v>1174.0</v>
+      </c>
+      <c r="C39" t="n">
+        <v>136.0</v>
+      </c>
+      <c r="D39" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="E39" t="n">
+        <v>679.0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>5727.0</v>
+        <v>2023.0</v>
       </c>
       <c r="B40" t="n">
-        <v>1934.0</v>
+        <v>1252.0</v>
+      </c>
+      <c r="C40" t="n">
+        <v>157.0</v>
+      </c>
+      <c r="D40" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="E40" t="n">
+        <v>755.0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>5354.0</v>
+        <v>2195.0</v>
       </c>
       <c r="B41" t="n">
-        <v>2124.0</v>
+        <v>1352.0</v>
+      </c>
+      <c r="C41" t="n">
+        <v>172.0</v>
+      </c>
+      <c r="D41" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="E41" t="n">
+        <v>824.0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>4881.0</v>
+        <v>2370.0</v>
       </c>
       <c r="B42" t="n">
-        <v>2204.0</v>
+        <v>1449.0</v>
+      </c>
+      <c r="C42" t="n">
+        <v>175.0</v>
+      </c>
+      <c r="D42" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="E42" t="n">
+        <v>902.0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>7027.0</v>
+        <v>2568.0</v>
       </c>
       <c r="B43" t="n">
-        <v>2431.0</v>
+        <v>1566.0</v>
+      </c>
+      <c r="C43" t="n">
+        <v>198.0</v>
+      </c>
+      <c r="D43" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="E43" t="n">
+        <v>981.0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>6465.0</v>
+        <v>2813.0</v>
       </c>
       <c r="B44" t="n">
-        <v>2404.0</v>
+        <v>1724.0</v>
+      </c>
+      <c r="C44" t="n">
+        <v>245.0</v>
+      </c>
+      <c r="D44" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="E44" t="n">
+        <v>1067.0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>7133.0</v>
+        <v>3057.0</v>
       </c>
       <c r="B45" t="n">
-        <v>2537.0</v>
+        <v>1854.0</v>
+      </c>
+      <c r="C45" t="n">
+        <v>244.0</v>
+      </c>
+      <c r="D45" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="E45" t="n">
+        <v>1178.0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>7806.0</v>
+        <v>3340.0</v>
       </c>
       <c r="B46" t="n">
-        <v>2920.0</v>
+        <v>2029.0</v>
+      </c>
+      <c r="C46" t="n">
+        <v>283.0</v>
+      </c>
+      <c r="D46" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="E46" t="n">
+        <v>1283.0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>8290.0</v>
+        <v>3652.0</v>
       </c>
       <c r="B47" t="n">
-        <v>3000.0</v>
+        <v>2227.0</v>
+      </c>
+      <c r="C47" t="n">
+        <v>312.0</v>
+      </c>
+      <c r="D47" t="n">
+        <v>32.0</v>
+      </c>
+      <c r="E47" t="n">
+        <v>1393.0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>7545.0</v>
+        <v>4037.0</v>
       </c>
       <c r="B48" t="n">
-        <v>3144.0</v>
+        <v>2509.0</v>
+      </c>
+      <c r="C48" t="n">
+        <v>385.0</v>
+      </c>
+      <c r="D48" t="n">
+        <v>34.0</v>
+      </c>
+      <c r="E48" t="n">
+        <v>1494.0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>7147.0</v>
+        <v>4392.0</v>
       </c>
       <c r="B49" t="n">
-        <v>3382.0</v>
+        <v>2742.0</v>
+      </c>
+      <c r="C49" t="n">
+        <v>355.0</v>
+      </c>
+      <c r="D49" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="E49" t="n">
+        <v>1614.0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>9614.0</v>
+        <v>4805.0</v>
       </c>
       <c r="B50" t="n">
-        <v>3595.0</v>
+        <v>3031.0</v>
+      </c>
+      <c r="C50" t="n">
+        <v>413.0</v>
+      </c>
+      <c r="D50" t="n">
+        <v>38.0</v>
+      </c>
+      <c r="E50" t="n">
+        <v>1736.0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>9028.0</v>
+        <v>5256.0</v>
       </c>
       <c r="B51" t="n">
-        <v>3462.0</v>
+        <v>3307.0</v>
+      </c>
+      <c r="C51" t="n">
+        <v>451.0</v>
+      </c>
+      <c r="D51" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="E51" t="n">
+        <v>1909.0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>9506.0</v>
+        <v>5755.0</v>
       </c>
       <c r="B52" t="n">
-        <v>3718.0</v>
+        <v>3625.0</v>
+      </c>
+      <c r="C52" t="n">
+        <v>499.0</v>
+      </c>
+      <c r="D52" t="n">
+        <v>44.0</v>
+      </c>
+      <c r="E52" t="n">
+        <v>2086.0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>10626.0</v>
+        <v>6272.0</v>
       </c>
       <c r="B53" t="n">
-        <v>3989.0</v>
+        <v>3961.0</v>
+      </c>
+      <c r="C53" t="n">
+        <v>517.0</v>
+      </c>
+      <c r="D53" t="n">
+        <v>45.0</v>
+      </c>
+      <c r="E53" t="n">
+        <v>2266.0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>11179.0</v>
+        <v>6843.0</v>
       </c>
       <c r="B54" t="n">
-        <v>4075.0</v>
+        <v>4347.0</v>
+      </c>
+      <c r="C54" t="n">
+        <v>571.0</v>
+      </c>
+      <c r="D54" t="n">
+        <v>47.0</v>
+      </c>
+      <c r="E54" t="n">
+        <v>2449.0</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>9571.0</v>
+        <v>7502.0</v>
       </c>
       <c r="B55" t="n">
-        <v>4240.0</v>
+        <v>4795.0</v>
+      </c>
+      <c r="C55" t="n">
+        <v>659.0</v>
+      </c>
+      <c r="D55" t="n">
+        <v>53.0</v>
+      </c>
+      <c r="E55" t="n">
+        <v>2654.0</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>9350.0</v>
+        <v>8189.0</v>
       </c>
       <c r="B56" t="n">
-        <v>4595.0</v>
+        <v>5238.0</v>
+      </c>
+      <c r="C56" t="n">
+        <v>687.0</v>
+      </c>
+      <c r="D56" t="n">
+        <v>58.0</v>
+      </c>
+      <c r="E56" t="n">
+        <v>2893.0</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>12688.0</v>
+        <v>8880.0</v>
       </c>
       <c r="B57" t="n">
-        <v>4901.0</v>
+        <v>5612.0</v>
+      </c>
+      <c r="C57" t="n">
+        <v>691.0</v>
+      </c>
+      <c r="D57" t="n">
+        <v>63.0</v>
+      </c>
+      <c r="E57" t="n">
+        <v>3205.0</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>11421.0</v>
+        <v>9644.0</v>
       </c>
       <c r="B58" t="n">
-        <v>4640.0</v>
+        <v>6087.0</v>
+      </c>
+      <c r="C58" t="n">
+        <v>764.0</v>
+      </c>
+      <c r="D58" t="n">
+        <v>68.0</v>
+      </c>
+      <c r="E58" t="n">
+        <v>3489.0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>11948.0</v>
+        <v>10436.0</v>
       </c>
       <c r="B59" t="n">
-        <v>4834.0</v>
+        <v>6555.0</v>
+      </c>
+      <c r="C59" t="n">
+        <v>792.0</v>
+      </c>
+      <c r="D59" t="n">
+        <v>72.0</v>
+      </c>
+      <c r="E59" t="n">
+        <v>3809.0</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>12718.0</v>
+        <v>11294.0</v>
       </c>
       <c r="B60" t="n">
-        <v>5335.0</v>
+        <v>7054.0</v>
+      </c>
+      <c r="C60" t="n">
+        <v>858.0</v>
+      </c>
+      <c r="D60" t="n">
+        <v>82.0</v>
+      </c>
+      <c r="E60" t="n">
+        <v>4158.0</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>13722.0</v>
+        <v>12254.0</v>
       </c>
       <c r="B61" t="n">
-        <v>5102.0</v>
+        <v>7584.0</v>
+      </c>
+      <c r="C61" t="n">
+        <v>960.0</v>
+      </c>
+      <c r="D61" t="n">
+        <v>84.0</v>
+      </c>
+      <c r="E61" t="n">
+        <v>4586.0</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>11939.0</v>
+        <v>13230.0</v>
       </c>
       <c r="B62" t="n">
-        <v>5506.0</v>
+        <v>8159.0</v>
+      </c>
+      <c r="C62" t="n">
+        <v>976.0</v>
+      </c>
+      <c r="D62" t="n">
+        <v>91.0</v>
+      </c>
+      <c r="E62" t="n">
+        <v>4980.0</v>
       </c>
     </row>
     <row r="63">

--- a/src/output/results8.xlsx
+++ b/src/output/results8.xlsx
@@ -346,10 +346,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>0.0</v>
+        <v>80.0</v>
       </c>
       <c r="B1" t="n">
-        <v>0.0</v>
+        <v>80.0</v>
       </c>
       <c r="C1" t="n">
         <v>0.0</v>
@@ -363,13 +363,13 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.0</v>
+        <v>81.0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0</v>
+        <v>81.0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="D2" t="n">
         <v>0.0</v>
@@ -380,13 +380,13 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.0</v>
+        <v>84.0</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0</v>
+        <v>84.0</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="D3" t="n">
         <v>0.0</v>
@@ -397,13 +397,13 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.0</v>
+        <v>86.0</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0</v>
+        <v>86.0</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="D4" t="n">
         <v>0.0</v>
@@ -414,13 +414,13 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1.0</v>
+        <v>94.0</v>
       </c>
       <c r="B5" t="n">
-        <v>1.0</v>
+        <v>94.0</v>
       </c>
       <c r="C5" t="n">
-        <v>1.0</v>
+        <v>8.0</v>
       </c>
       <c r="D5" t="n">
         <v>0.0</v>
@@ -431,13 +431,13 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>5.0</v>
+        <v>106.0</v>
       </c>
       <c r="B6" t="n">
-        <v>5.0</v>
+        <v>106.0</v>
       </c>
       <c r="C6" t="n">
-        <v>4.0</v>
+        <v>12.0</v>
       </c>
       <c r="D6" t="n">
         <v>0.0</v>
@@ -448,13 +448,13 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>8.0</v>
+        <v>121.0</v>
       </c>
       <c r="B7" t="n">
-        <v>8.0</v>
+        <v>121.0</v>
       </c>
       <c r="C7" t="n">
-        <v>3.0</v>
+        <v>15.0</v>
       </c>
       <c r="D7" t="n">
         <v>0.0</v>
@@ -465,13 +465,13 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>13.0</v>
+        <v>137.0</v>
       </c>
       <c r="B8" t="n">
-        <v>13.0</v>
+        <v>137.0</v>
       </c>
       <c r="C8" t="n">
-        <v>5.0</v>
+        <v>16.0</v>
       </c>
       <c r="D8" t="n">
         <v>0.0</v>
@@ -482,13 +482,13 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>22.0</v>
+        <v>145.0</v>
       </c>
       <c r="B9" t="n">
-        <v>22.0</v>
+        <v>145.0</v>
       </c>
       <c r="C9" t="n">
-        <v>9.0</v>
+        <v>8.0</v>
       </c>
       <c r="D9" t="n">
         <v>0.0</v>
@@ -499,13 +499,13 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>30.0</v>
+        <v>157.0</v>
       </c>
       <c r="B10" t="n">
-        <v>30.0</v>
+        <v>157.0</v>
       </c>
       <c r="C10" t="n">
-        <v>8.0</v>
+        <v>12.0</v>
       </c>
       <c r="D10" t="n">
         <v>0.0</v>
@@ -516,886 +516,886 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>41.0</v>
+        <v>172.0</v>
       </c>
       <c r="B11" t="n">
-        <v>41.0</v>
+        <v>171.0</v>
       </c>
       <c r="C11" t="n">
-        <v>11.0</v>
+        <v>15.0</v>
       </c>
       <c r="D11" t="n">
         <v>0.0</v>
       </c>
       <c r="E11" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>54.0</v>
+        <v>194.0</v>
       </c>
       <c r="B12" t="n">
-        <v>52.0</v>
+        <v>190.0</v>
       </c>
       <c r="C12" t="n">
-        <v>13.0</v>
+        <v>22.0</v>
       </c>
       <c r="D12" t="n">
         <v>0.0</v>
       </c>
       <c r="E12" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>70.0</v>
+        <v>222.0</v>
       </c>
       <c r="B13" t="n">
-        <v>68.0</v>
+        <v>216.0</v>
       </c>
       <c r="C13" t="n">
-        <v>16.0</v>
+        <v>28.0</v>
       </c>
       <c r="D13" t="n">
         <v>0.0</v>
       </c>
       <c r="E13" t="n">
-        <v>2.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>85.0</v>
+        <v>246.0</v>
       </c>
       <c r="B14" t="n">
-        <v>80.0</v>
+        <v>235.0</v>
       </c>
       <c r="C14" t="n">
-        <v>15.0</v>
+        <v>24.0</v>
       </c>
       <c r="D14" t="n">
         <v>0.0</v>
       </c>
       <c r="E14" t="n">
-        <v>5.0</v>
+        <v>11.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>107.0</v>
+        <v>278.0</v>
       </c>
       <c r="B15" t="n">
-        <v>100.0</v>
+        <v>265.0</v>
       </c>
       <c r="C15" t="n">
-        <v>22.0</v>
+        <v>32.0</v>
       </c>
       <c r="D15" t="n">
         <v>0.0</v>
       </c>
       <c r="E15" t="n">
-        <v>7.0</v>
+        <v>13.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>139.0</v>
+        <v>316.0</v>
       </c>
       <c r="B16" t="n">
-        <v>129.0</v>
+        <v>299.0</v>
       </c>
       <c r="C16" t="n">
-        <v>32.0</v>
+        <v>38.0</v>
       </c>
       <c r="D16" t="n">
         <v>0.0</v>
       </c>
       <c r="E16" t="n">
-        <v>10.0</v>
+        <v>17.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>159.0</v>
+        <v>373.0</v>
       </c>
       <c r="B17" t="n">
-        <v>141.0</v>
+        <v>350.0</v>
       </c>
       <c r="C17" t="n">
-        <v>20.0</v>
+        <v>57.0</v>
       </c>
       <c r="D17" t="n">
         <v>0.0</v>
       </c>
       <c r="E17" t="n">
-        <v>18.0</v>
+        <v>23.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>194.0</v>
+        <v>421.0</v>
       </c>
       <c r="B18" t="n">
-        <v>173.0</v>
+        <v>390.0</v>
       </c>
       <c r="C18" t="n">
-        <v>35.0</v>
+        <v>48.0</v>
       </c>
       <c r="D18" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="E18" t="n">
-        <v>20.0</v>
+        <v>31.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>254.0</v>
+        <v>483.0</v>
       </c>
       <c r="B19" t="n">
-        <v>226.0</v>
+        <v>440.0</v>
       </c>
       <c r="C19" t="n">
-        <v>60.0</v>
+        <v>62.0</v>
       </c>
       <c r="D19" t="n">
         <v>1.0</v>
       </c>
       <c r="E19" t="n">
-        <v>27.0</v>
+        <v>42.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>301.0</v>
+        <v>565.0</v>
       </c>
       <c r="B20" t="n">
-        <v>267.0</v>
+        <v>506.0</v>
       </c>
       <c r="C20" t="n">
-        <v>47.0</v>
+        <v>82.0</v>
       </c>
       <c r="D20" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="E20" t="n">
-        <v>33.0</v>
+        <v>57.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>359.0</v>
+        <v>634.0</v>
       </c>
       <c r="B21" t="n">
-        <v>318.0</v>
+        <v>562.0</v>
       </c>
       <c r="C21" t="n">
-        <v>58.0</v>
+        <v>69.0</v>
       </c>
       <c r="D21" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="E21" t="n">
-        <v>40.0</v>
+        <v>70.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>416.0</v>
+        <v>717.0</v>
       </c>
       <c r="B22" t="n">
-        <v>361.0</v>
+        <v>635.0</v>
       </c>
       <c r="C22" t="n">
-        <v>57.0</v>
+        <v>83.0</v>
       </c>
       <c r="D22" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="E22" t="n">
-        <v>54.0</v>
+        <v>80.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>488.0</v>
+        <v>817.0</v>
       </c>
       <c r="B23" t="n">
-        <v>421.0</v>
+        <v>714.0</v>
       </c>
       <c r="C23" t="n">
-        <v>72.0</v>
+        <v>100.0</v>
       </c>
       <c r="D23" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="E23" t="n">
-        <v>66.0</v>
+        <v>100.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>575.0</v>
+        <v>950.0</v>
       </c>
       <c r="B24" t="n">
-        <v>489.0</v>
+        <v>829.0</v>
       </c>
       <c r="C24" t="n">
-        <v>87.0</v>
+        <v>133.0</v>
       </c>
       <c r="D24" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="E24" t="n">
-        <v>85.0</v>
+        <v>118.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>652.0</v>
+        <v>1060.0</v>
       </c>
       <c r="B25" t="n">
-        <v>547.0</v>
+        <v>915.0</v>
       </c>
       <c r="C25" t="n">
-        <v>77.0</v>
+        <v>110.0</v>
       </c>
       <c r="D25" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="E25" t="n">
-        <v>103.0</v>
+        <v>142.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>743.0</v>
+        <v>1161.0</v>
       </c>
       <c r="B26" t="n">
-        <v>610.0</v>
+        <v>982.0</v>
       </c>
       <c r="C26" t="n">
-        <v>91.0</v>
+        <v>101.0</v>
       </c>
       <c r="D26" t="n">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
       <c r="E26" t="n">
-        <v>128.0</v>
+        <v>176.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>831.0</v>
+        <v>1293.0</v>
       </c>
       <c r="B27" t="n">
-        <v>668.0</v>
+        <v>1081.0</v>
       </c>
       <c r="C27" t="n">
-        <v>88.0</v>
+        <v>132.0</v>
       </c>
       <c r="D27" t="n">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="E27" t="n">
-        <v>158.0</v>
+        <v>208.0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>912.0</v>
+        <v>1428.0</v>
       </c>
       <c r="B28" t="n">
-        <v>721.0</v>
+        <v>1168.0</v>
       </c>
       <c r="C28" t="n">
-        <v>81.0</v>
+        <v>135.0</v>
       </c>
       <c r="D28" t="n">
         <v>5.0</v>
       </c>
       <c r="E28" t="n">
-        <v>186.0</v>
+        <v>255.0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>994.0</v>
+        <v>1577.0</v>
       </c>
       <c r="B29" t="n">
-        <v>769.0</v>
+        <v>1273.0</v>
       </c>
       <c r="C29" t="n">
-        <v>82.0</v>
+        <v>149.0</v>
       </c>
       <c r="D29" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="E29" t="n">
-        <v>220.0</v>
+        <v>298.0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>1083.0</v>
+        <v>1736.0</v>
       </c>
       <c r="B30" t="n">
-        <v>823.0</v>
+        <v>1373.0</v>
       </c>
       <c r="C30" t="n">
-        <v>89.0</v>
+        <v>159.0</v>
       </c>
       <c r="D30" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="E30" t="n">
-        <v>255.0</v>
+        <v>357.0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>1187.0</v>
+        <v>1879.0</v>
       </c>
       <c r="B31" t="n">
-        <v>882.0</v>
+        <v>1466.0</v>
       </c>
       <c r="C31" t="n">
-        <v>104.0</v>
+        <v>143.0</v>
       </c>
       <c r="D31" t="n">
-        <v>5.0</v>
+        <v>10.0</v>
       </c>
       <c r="E31" t="n">
-        <v>300.0</v>
+        <v>403.0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>1302.0</v>
+        <v>2057.0</v>
       </c>
       <c r="B32" t="n">
-        <v>945.0</v>
+        <v>1597.0</v>
       </c>
       <c r="C32" t="n">
-        <v>115.0</v>
+        <v>178.0</v>
       </c>
       <c r="D32" t="n">
-        <v>6.0</v>
+        <v>11.0</v>
       </c>
       <c r="E32" t="n">
-        <v>351.0</v>
+        <v>449.0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>1431.0</v>
+        <v>2228.0</v>
       </c>
       <c r="B33" t="n">
-        <v>1020.0</v>
+        <v>1689.0</v>
       </c>
       <c r="C33" t="n">
-        <v>129.0</v>
+        <v>171.0</v>
       </c>
       <c r="D33" t="n">
-        <v>7.0</v>
+        <v>13.0</v>
       </c>
       <c r="E33" t="n">
-        <v>404.0</v>
+        <v>526.0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>1563.0</v>
+        <v>2430.0</v>
       </c>
       <c r="B34" t="n">
-        <v>1078.0</v>
+        <v>1816.0</v>
       </c>
       <c r="C34" t="n">
-        <v>132.0</v>
+        <v>202.0</v>
       </c>
       <c r="D34" t="n">
-        <v>8.0</v>
+        <v>14.0</v>
       </c>
       <c r="E34" t="n">
-        <v>477.0</v>
+        <v>600.0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>1728.0</v>
+        <v>2641.0</v>
       </c>
       <c r="B35" t="n">
-        <v>1183.0</v>
+        <v>1936.0</v>
       </c>
       <c r="C35" t="n">
-        <v>165.0</v>
+        <v>211.0</v>
       </c>
       <c r="D35" t="n">
-        <v>9.0</v>
+        <v>15.0</v>
       </c>
       <c r="E35" t="n">
-        <v>536.0</v>
+        <v>690.0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>1910.0</v>
+        <v>2862.0</v>
       </c>
       <c r="B36" t="n">
-        <v>1294.0</v>
+        <v>2060.0</v>
       </c>
       <c r="C36" t="n">
-        <v>182.0</v>
+        <v>221.0</v>
       </c>
       <c r="D36" t="n">
-        <v>9.0</v>
+        <v>17.0</v>
       </c>
       <c r="E36" t="n">
-        <v>607.0</v>
+        <v>785.0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>2088.0</v>
+        <v>3104.0</v>
       </c>
       <c r="B37" t="n">
-        <v>1402.0</v>
+        <v>2213.0</v>
       </c>
       <c r="C37" t="n">
-        <v>178.0</v>
+        <v>242.0</v>
       </c>
       <c r="D37" t="n">
-        <v>12.0</v>
+        <v>18.0</v>
       </c>
       <c r="E37" t="n">
-        <v>674.0</v>
+        <v>873.0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>2306.0</v>
+        <v>3366.0</v>
       </c>
       <c r="B38" t="n">
-        <v>1536.0</v>
+        <v>2351.0</v>
       </c>
       <c r="C38" t="n">
-        <v>218.0</v>
+        <v>262.0</v>
       </c>
       <c r="D38" t="n">
-        <v>14.0</v>
+        <v>18.0</v>
       </c>
       <c r="E38" t="n">
-        <v>756.0</v>
+        <v>997.0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>2564.0</v>
+        <v>3685.0</v>
       </c>
       <c r="B39" t="n">
-        <v>1704.0</v>
+        <v>2541.0</v>
       </c>
       <c r="C39" t="n">
-        <v>258.0</v>
+        <v>319.0</v>
       </c>
       <c r="D39" t="n">
-        <v>14.0</v>
+        <v>20.0</v>
       </c>
       <c r="E39" t="n">
-        <v>846.0</v>
+        <v>1124.0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>2833.0</v>
+        <v>4002.0</v>
       </c>
       <c r="B40" t="n">
-        <v>1882.0</v>
+        <v>2733.0</v>
       </c>
       <c r="C40" t="n">
-        <v>269.0</v>
+        <v>317.0</v>
       </c>
       <c r="D40" t="n">
-        <v>15.0</v>
+        <v>23.0</v>
       </c>
       <c r="E40" t="n">
-        <v>936.0</v>
+        <v>1246.0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>3105.0</v>
+        <v>4396.0</v>
       </c>
       <c r="B41" t="n">
-        <v>2064.0</v>
+        <v>3002.0</v>
       </c>
       <c r="C41" t="n">
-        <v>272.0</v>
+        <v>394.0</v>
       </c>
       <c r="D41" t="n">
-        <v>17.0</v>
+        <v>26.0</v>
       </c>
       <c r="E41" t="n">
-        <v>1024.0</v>
+        <v>1368.0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>3433.0</v>
+        <v>4791.0</v>
       </c>
       <c r="B42" t="n">
-        <v>2304.0</v>
+        <v>3249.0</v>
       </c>
       <c r="C42" t="n">
-        <v>328.0</v>
+        <v>395.0</v>
       </c>
       <c r="D42" t="n">
-        <v>19.0</v>
+        <v>28.0</v>
       </c>
       <c r="E42" t="n">
-        <v>1110.0</v>
+        <v>1514.0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>3802.0</v>
+        <v>5220.0</v>
       </c>
       <c r="B43" t="n">
-        <v>2563.0</v>
+        <v>3528.0</v>
       </c>
       <c r="C43" t="n">
-        <v>369.0</v>
+        <v>429.0</v>
       </c>
       <c r="D43" t="n">
-        <v>19.0</v>
+        <v>29.0</v>
       </c>
       <c r="E43" t="n">
-        <v>1220.0</v>
+        <v>1663.0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>4176.0</v>
+        <v>5697.0</v>
       </c>
       <c r="B44" t="n">
-        <v>2793.0</v>
+        <v>3822.0</v>
       </c>
       <c r="C44" t="n">
-        <v>374.0</v>
+        <v>477.0</v>
       </c>
       <c r="D44" t="n">
-        <v>20.0</v>
+        <v>34.0</v>
       </c>
       <c r="E44" t="n">
-        <v>1363.0</v>
+        <v>1841.0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>4605.0</v>
+        <v>6182.0</v>
       </c>
       <c r="B45" t="n">
-        <v>3085.0</v>
+        <v>4129.0</v>
       </c>
       <c r="C45" t="n">
-        <v>429.0</v>
+        <v>485.0</v>
       </c>
       <c r="D45" t="n">
-        <v>23.0</v>
+        <v>39.0</v>
       </c>
       <c r="E45" t="n">
-        <v>1497.0</v>
+        <v>2014.0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>5093.0</v>
+        <v>6731.0</v>
       </c>
       <c r="B46" t="n">
-        <v>3404.0</v>
+        <v>4493.0</v>
       </c>
       <c r="C46" t="n">
-        <v>488.0</v>
+        <v>549.0</v>
       </c>
       <c r="D46" t="n">
-        <v>25.0</v>
+        <v>43.0</v>
       </c>
       <c r="E46" t="n">
-        <v>1664.0</v>
+        <v>2195.0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>5623.0</v>
+        <v>7340.0</v>
       </c>
       <c r="B47" t="n">
-        <v>3742.0</v>
+        <v>4885.0</v>
       </c>
       <c r="C47" t="n">
-        <v>530.0</v>
+        <v>609.0</v>
       </c>
       <c r="D47" t="n">
-        <v>33.0</v>
+        <v>49.0</v>
       </c>
       <c r="E47" t="n">
-        <v>1848.0</v>
+        <v>2406.0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>6188.0</v>
+        <v>8009.0</v>
       </c>
       <c r="B48" t="n">
-        <v>4121.0</v>
+        <v>5317.0</v>
       </c>
       <c r="C48" t="n">
-        <v>565.0</v>
+        <v>669.0</v>
       </c>
       <c r="D48" t="n">
-        <v>36.0</v>
+        <v>50.0</v>
       </c>
       <c r="E48" t="n">
-        <v>2031.0</v>
+        <v>2642.0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>6803.0</v>
+        <v>8748.0</v>
       </c>
       <c r="B49" t="n">
-        <v>4554.0</v>
+        <v>5809.0</v>
       </c>
       <c r="C49" t="n">
-        <v>615.0</v>
+        <v>739.0</v>
       </c>
       <c r="D49" t="n">
-        <v>40.0</v>
+        <v>51.0</v>
       </c>
       <c r="E49" t="n">
-        <v>2209.0</v>
+        <v>2888.0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>7472.0</v>
+        <v>9577.0</v>
       </c>
       <c r="B50" t="n">
-        <v>4997.0</v>
+        <v>6360.0</v>
       </c>
       <c r="C50" t="n">
-        <v>669.0</v>
+        <v>829.0</v>
       </c>
       <c r="D50" t="n">
-        <v>43.0</v>
+        <v>62.0</v>
       </c>
       <c r="E50" t="n">
-        <v>2432.0</v>
+        <v>3155.0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>8191.0</v>
+        <v>10477.0</v>
       </c>
       <c r="B51" t="n">
-        <v>5460.0</v>
+        <v>6942.0</v>
       </c>
       <c r="C51" t="n">
-        <v>719.0</v>
+        <v>900.0</v>
       </c>
       <c r="D51" t="n">
-        <v>46.0</v>
+        <v>68.0</v>
       </c>
       <c r="E51" t="n">
-        <v>2685.0</v>
+        <v>3467.0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>8984.0</v>
+        <v>11393.0</v>
       </c>
       <c r="B52" t="n">
-        <v>5965.0</v>
+        <v>7553.0</v>
       </c>
       <c r="C52" t="n">
-        <v>793.0</v>
+        <v>916.0</v>
       </c>
       <c r="D52" t="n">
-        <v>49.0</v>
+        <v>76.0</v>
       </c>
       <c r="E52" t="n">
-        <v>2970.0</v>
+        <v>3764.0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>9882.0</v>
+        <v>12371.0</v>
       </c>
       <c r="B53" t="n">
-        <v>6574.0</v>
+        <v>8183.0</v>
       </c>
       <c r="C53" t="n">
-        <v>898.0</v>
+        <v>978.0</v>
       </c>
       <c r="D53" t="n">
-        <v>56.0</v>
+        <v>82.0</v>
       </c>
       <c r="E53" t="n">
-        <v>3252.0</v>
+        <v>4106.0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>10829.0</v>
+        <v>13413.0</v>
       </c>
       <c r="B54" t="n">
-        <v>7172.0</v>
+        <v>8839.0</v>
       </c>
       <c r="C54" t="n">
-        <v>947.0</v>
+        <v>1042.0</v>
       </c>
       <c r="D54" t="n">
-        <v>65.0</v>
+        <v>88.0</v>
       </c>
       <c r="E54" t="n">
-        <v>3592.0</v>
+        <v>4486.0</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>11875.0</v>
+        <v>14562.0</v>
       </c>
       <c r="B55" t="n">
-        <v>7825.0</v>
+        <v>9590.0</v>
       </c>
       <c r="C55" t="n">
-        <v>1046.0</v>
+        <v>1149.0</v>
       </c>
       <c r="D55" t="n">
-        <v>74.0</v>
+        <v>96.0</v>
       </c>
       <c r="E55" t="n">
-        <v>3976.0</v>
+        <v>4876.0</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>12978.0</v>
+        <v>15740.0</v>
       </c>
       <c r="B56" t="n">
-        <v>8479.0</v>
+        <v>10324.0</v>
       </c>
       <c r="C56" t="n">
-        <v>1103.0</v>
+        <v>1178.0</v>
       </c>
       <c r="D56" t="n">
-        <v>79.0</v>
+        <v>102.0</v>
       </c>
       <c r="E56" t="n">
-        <v>4420.0</v>
+        <v>5314.0</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>14110.0</v>
+        <v>17004.0</v>
       </c>
       <c r="B57" t="n">
-        <v>9160.0</v>
+        <v>11107.0</v>
       </c>
       <c r="C57" t="n">
-        <v>1132.0</v>
+        <v>1264.0</v>
       </c>
       <c r="D57" t="n">
-        <v>86.0</v>
+        <v>112.0</v>
       </c>
       <c r="E57" t="n">
-        <v>4864.0</v>
+        <v>5785.0</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>15419.0</v>
+        <v>18337.0</v>
       </c>
       <c r="B58" t="n">
-        <v>9961.0</v>
+        <v>11922.0</v>
       </c>
       <c r="C58" t="n">
-        <v>1309.0</v>
+        <v>1333.0</v>
       </c>
       <c r="D58" t="n">
-        <v>97.0</v>
+        <v>118.0</v>
       </c>
       <c r="E58" t="n">
-        <v>5361.0</v>
+        <v>6297.0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>16796.0</v>
+        <v>19674.0</v>
       </c>
       <c r="B59" t="n">
-        <v>10827.0</v>
+        <v>12689.0</v>
       </c>
       <c r="C59" t="n">
-        <v>1377.0</v>
+        <v>1337.0</v>
       </c>
       <c r="D59" t="n">
-        <v>107.0</v>
+        <v>131.0</v>
       </c>
       <c r="E59" t="n">
-        <v>5862.0</v>
+        <v>6854.0</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>18222.0</v>
+        <v>21070.0</v>
       </c>
       <c r="B60" t="n">
-        <v>11674.0</v>
+        <v>13477.0</v>
       </c>
       <c r="C60" t="n">
-        <v>1426.0</v>
+        <v>1396.0</v>
       </c>
       <c r="D60" t="n">
-        <v>118.0</v>
+        <v>142.0</v>
       </c>
       <c r="E60" t="n">
-        <v>6430.0</v>
+        <v>7451.0</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>19891.0</v>
+        <v>22596.0</v>
       </c>
       <c r="B61" t="n">
-        <v>12609.0</v>
+        <v>14281.0</v>
       </c>
       <c r="C61" t="n">
-        <v>1669.0</v>
+        <v>1526.0</v>
       </c>
       <c r="D61" t="n">
-        <v>128.0</v>
+        <v>153.0</v>
       </c>
       <c r="E61" t="n">
-        <v>7154.0</v>
+        <v>8162.0</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>21614.0</v>
+        <v>24200.0</v>
       </c>
       <c r="B62" t="n">
-        <v>13684.0</v>
+        <v>15133.0</v>
       </c>
       <c r="C62" t="n">
-        <v>1723.0</v>
+        <v>1604.0</v>
       </c>
       <c r="D62" t="n">
-        <v>140.0</v>
+        <v>164.0</v>
       </c>
       <c r="E62" t="n">
-        <v>7790.0</v>
+        <v>8903.0</v>
       </c>
     </row>
   </sheetData>

--- a/src/output/results8.xlsx
+++ b/src/output/results8.xlsx
@@ -336,7 +336,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E62"/>
+  <dimension ref="A1:E139"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
       <selection activeCell="G60" sqref="G60"/>
@@ -346,13 +346,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>80.0</v>
+        <v>302.0</v>
       </c>
       <c r="B1" t="n">
-        <v>80.0</v>
+        <v>302.0</v>
       </c>
       <c r="C1" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="D1" t="n">
         <v>0.0</v>
@@ -363,13 +363,13 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>81.0</v>
+        <v>308.0</v>
       </c>
       <c r="B2" t="n">
-        <v>81.0</v>
+        <v>308.0</v>
       </c>
       <c r="C2" t="n">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
       <c r="D2" t="n">
         <v>0.0</v>
@@ -380,13 +380,13 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>84.0</v>
+        <v>329.0</v>
       </c>
       <c r="B3" t="n">
-        <v>84.0</v>
+        <v>329.0</v>
       </c>
       <c r="C3" t="n">
-        <v>3.0</v>
+        <v>21.0</v>
       </c>
       <c r="D3" t="n">
         <v>0.0</v>
@@ -397,13 +397,13 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>86.0</v>
+        <v>356.0</v>
       </c>
       <c r="B4" t="n">
-        <v>86.0</v>
+        <v>356.0</v>
       </c>
       <c r="C4" t="n">
-        <v>2.0</v>
+        <v>27.0</v>
       </c>
       <c r="D4" t="n">
         <v>0.0</v>
@@ -414,988 +414,2297 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>94.0</v>
+        <v>376.0</v>
       </c>
       <c r="B5" t="n">
-        <v>94.0</v>
+        <v>375.0</v>
       </c>
       <c r="C5" t="n">
-        <v>8.0</v>
+        <v>20.0</v>
       </c>
       <c r="D5" t="n">
         <v>0.0</v>
       </c>
       <c r="E5" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>106.0</v>
+        <v>405.0</v>
       </c>
       <c r="B6" t="n">
-        <v>106.0</v>
+        <v>403.0</v>
       </c>
       <c r="C6" t="n">
-        <v>12.0</v>
+        <v>29.0</v>
       </c>
       <c r="D6" t="n">
         <v>0.0</v>
       </c>
       <c r="E6" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>121.0</v>
+        <v>443.0</v>
       </c>
       <c r="B7" t="n">
-        <v>121.0</v>
+        <v>440.0</v>
       </c>
       <c r="C7" t="n">
-        <v>15.0</v>
+        <v>38.0</v>
       </c>
       <c r="D7" t="n">
         <v>0.0</v>
       </c>
       <c r="E7" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>137.0</v>
+        <v>480.0</v>
       </c>
       <c r="B8" t="n">
-        <v>137.0</v>
+        <v>475.0</v>
       </c>
       <c r="C8" t="n">
-        <v>16.0</v>
+        <v>37.0</v>
       </c>
       <c r="D8" t="n">
         <v>0.0</v>
       </c>
       <c r="E8" t="n">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>145.0</v>
+        <v>515.0</v>
       </c>
       <c r="B9" t="n">
-        <v>145.0</v>
+        <v>507.0</v>
       </c>
       <c r="C9" t="n">
-        <v>8.0</v>
+        <v>35.0</v>
       </c>
       <c r="D9" t="n">
         <v>0.0</v>
       </c>
       <c r="E9" t="n">
-        <v>0.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>157.0</v>
+        <v>551.0</v>
       </c>
       <c r="B10" t="n">
-        <v>157.0</v>
+        <v>542.0</v>
       </c>
       <c r="C10" t="n">
-        <v>12.0</v>
+        <v>36.0</v>
       </c>
       <c r="D10" t="n">
         <v>0.0</v>
       </c>
       <c r="E10" t="n">
-        <v>0.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>172.0</v>
+        <v>593.0</v>
       </c>
       <c r="B11" t="n">
-        <v>171.0</v>
+        <v>578.0</v>
       </c>
       <c r="C11" t="n">
-        <v>15.0</v>
+        <v>42.0</v>
       </c>
       <c r="D11" t="n">
         <v>0.0</v>
       </c>
       <c r="E11" t="n">
-        <v>1.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>194.0</v>
+        <v>638.0</v>
       </c>
       <c r="B12" t="n">
-        <v>190.0</v>
+        <v>620.0</v>
       </c>
       <c r="C12" t="n">
-        <v>22.0</v>
+        <v>45.0</v>
       </c>
       <c r="D12" t="n">
         <v>0.0</v>
       </c>
       <c r="E12" t="n">
-        <v>4.0</v>
+        <v>18.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>222.0</v>
+        <v>682.0</v>
       </c>
       <c r="B13" t="n">
-        <v>216.0</v>
+        <v>654.0</v>
       </c>
       <c r="C13" t="n">
-        <v>28.0</v>
+        <v>44.0</v>
       </c>
       <c r="D13" t="n">
         <v>0.0</v>
       </c>
       <c r="E13" t="n">
-        <v>6.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>246.0</v>
+        <v>730.0</v>
       </c>
       <c r="B14" t="n">
-        <v>235.0</v>
+        <v>690.0</v>
       </c>
       <c r="C14" t="n">
-        <v>24.0</v>
+        <v>48.0</v>
       </c>
       <c r="D14" t="n">
         <v>0.0</v>
       </c>
       <c r="E14" t="n">
-        <v>11.0</v>
+        <v>40.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>278.0</v>
+        <v>797.0</v>
       </c>
       <c r="B15" t="n">
-        <v>265.0</v>
+        <v>741.0</v>
       </c>
       <c r="C15" t="n">
-        <v>32.0</v>
+        <v>67.0</v>
       </c>
       <c r="D15" t="n">
         <v>0.0</v>
       </c>
       <c r="E15" t="n">
-        <v>13.0</v>
+        <v>56.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>316.0</v>
+        <v>867.0</v>
       </c>
       <c r="B16" t="n">
-        <v>299.0</v>
+        <v>789.0</v>
       </c>
       <c r="C16" t="n">
-        <v>38.0</v>
+        <v>70.0</v>
       </c>
       <c r="D16" t="n">
         <v>0.0</v>
       </c>
       <c r="E16" t="n">
-        <v>17.0</v>
+        <v>78.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>373.0</v>
+        <v>944.0</v>
       </c>
       <c r="B17" t="n">
-        <v>350.0</v>
+        <v>846.0</v>
       </c>
       <c r="C17" t="n">
-        <v>57.0</v>
+        <v>77.0</v>
       </c>
       <c r="D17" t="n">
         <v>0.0</v>
       </c>
       <c r="E17" t="n">
-        <v>23.0</v>
+        <v>98.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>421.0</v>
+        <v>1019.0</v>
       </c>
       <c r="B18" t="n">
-        <v>390.0</v>
+        <v>890.0</v>
       </c>
       <c r="C18" t="n">
-        <v>48.0</v>
+        <v>75.0</v>
       </c>
       <c r="D18" t="n">
         <v>0.0</v>
       </c>
       <c r="E18" t="n">
-        <v>31.0</v>
+        <v>129.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>483.0</v>
+        <v>1100.0</v>
       </c>
       <c r="B19" t="n">
-        <v>440.0</v>
+        <v>951.0</v>
       </c>
       <c r="C19" t="n">
-        <v>62.0</v>
+        <v>81.0</v>
       </c>
       <c r="D19" t="n">
         <v>1.0</v>
       </c>
       <c r="E19" t="n">
-        <v>42.0</v>
+        <v>148.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>565.0</v>
+        <v>1189.0</v>
       </c>
       <c r="B20" t="n">
-        <v>506.0</v>
+        <v>1011.0</v>
       </c>
       <c r="C20" t="n">
-        <v>82.0</v>
+        <v>89.0</v>
       </c>
       <c r="D20" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="E20" t="n">
-        <v>57.0</v>
+        <v>177.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>634.0</v>
+        <v>1287.0</v>
       </c>
       <c r="B21" t="n">
-        <v>562.0</v>
+        <v>1088.0</v>
       </c>
       <c r="C21" t="n">
-        <v>69.0</v>
+        <v>98.0</v>
       </c>
       <c r="D21" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="E21" t="n">
-        <v>70.0</v>
+        <v>198.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>717.0</v>
+        <v>1380.0</v>
       </c>
       <c r="B22" t="n">
-        <v>635.0</v>
+        <v>1138.0</v>
       </c>
       <c r="C22" t="n">
-        <v>83.0</v>
+        <v>93.0</v>
       </c>
       <c r="D22" t="n">
         <v>2.0</v>
       </c>
       <c r="E22" t="n">
-        <v>80.0</v>
+        <v>240.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>817.0</v>
+        <v>1483.0</v>
       </c>
       <c r="B23" t="n">
-        <v>714.0</v>
+        <v>1206.0</v>
       </c>
       <c r="C23" t="n">
-        <v>100.0</v>
+        <v>103.0</v>
       </c>
       <c r="D23" t="n">
         <v>3.0</v>
       </c>
       <c r="E23" t="n">
-        <v>100.0</v>
+        <v>274.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>950.0</v>
+        <v>1614.0</v>
       </c>
       <c r="B24" t="n">
-        <v>829.0</v>
+        <v>1305.0</v>
       </c>
       <c r="C24" t="n">
-        <v>133.0</v>
+        <v>131.0</v>
       </c>
       <c r="D24" t="n">
         <v>3.0</v>
       </c>
       <c r="E24" t="n">
-        <v>118.0</v>
+        <v>306.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>1060.0</v>
+        <v>1734.0</v>
       </c>
       <c r="B25" t="n">
-        <v>915.0</v>
+        <v>1386.0</v>
       </c>
       <c r="C25" t="n">
-        <v>110.0</v>
+        <v>120.0</v>
       </c>
       <c r="D25" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="E25" t="n">
-        <v>142.0</v>
+        <v>344.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>1161.0</v>
+        <v>1863.0</v>
       </c>
       <c r="B26" t="n">
-        <v>982.0</v>
+        <v>1445.0</v>
       </c>
       <c r="C26" t="n">
-        <v>101.0</v>
+        <v>129.0</v>
       </c>
       <c r="D26" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="E26" t="n">
-        <v>176.0</v>
+        <v>414.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>1293.0</v>
+        <v>2006.0</v>
       </c>
       <c r="B27" t="n">
-        <v>1081.0</v>
+        <v>1540.0</v>
       </c>
       <c r="C27" t="n">
-        <v>132.0</v>
+        <v>143.0</v>
       </c>
       <c r="D27" t="n">
-        <v>4.0</v>
+        <v>7.0</v>
       </c>
       <c r="E27" t="n">
-        <v>208.0</v>
+        <v>459.0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>1428.0</v>
+        <v>2137.0</v>
       </c>
       <c r="B28" t="n">
-        <v>1168.0</v>
+        <v>1609.0</v>
       </c>
       <c r="C28" t="n">
-        <v>135.0</v>
+        <v>131.0</v>
       </c>
       <c r="D28" t="n">
-        <v>5.0</v>
+        <v>8.0</v>
       </c>
       <c r="E28" t="n">
-        <v>255.0</v>
+        <v>520.0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>1577.0</v>
+        <v>2283.0</v>
       </c>
       <c r="B29" t="n">
-        <v>1273.0</v>
+        <v>1683.0</v>
       </c>
       <c r="C29" t="n">
-        <v>149.0</v>
+        <v>146.0</v>
       </c>
       <c r="D29" t="n">
-        <v>6.0</v>
+        <v>8.0</v>
       </c>
       <c r="E29" t="n">
-        <v>298.0</v>
+        <v>592.0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>1736.0</v>
+        <v>2440.0</v>
       </c>
       <c r="B30" t="n">
-        <v>1373.0</v>
+        <v>1770.0</v>
       </c>
       <c r="C30" t="n">
-        <v>159.0</v>
+        <v>157.0</v>
       </c>
       <c r="D30" t="n">
-        <v>6.0</v>
+        <v>9.0</v>
       </c>
       <c r="E30" t="n">
-        <v>357.0</v>
+        <v>661.0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>1879.0</v>
+        <v>2612.0</v>
       </c>
       <c r="B31" t="n">
-        <v>1466.0</v>
+        <v>1881.0</v>
       </c>
       <c r="C31" t="n">
-        <v>143.0</v>
+        <v>172.0</v>
       </c>
       <c r="D31" t="n">
         <v>10.0</v>
       </c>
       <c r="E31" t="n">
-        <v>403.0</v>
+        <v>721.0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>2057.0</v>
+        <v>2758.0</v>
       </c>
       <c r="B32" t="n">
-        <v>1597.0</v>
+        <v>1944.0</v>
       </c>
       <c r="C32" t="n">
-        <v>178.0</v>
+        <v>146.0</v>
       </c>
       <c r="D32" t="n">
-        <v>11.0</v>
+        <v>10.0</v>
       </c>
       <c r="E32" t="n">
-        <v>449.0</v>
+        <v>804.0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>2228.0</v>
+        <v>2927.0</v>
       </c>
       <c r="B33" t="n">
-        <v>1689.0</v>
+        <v>2027.0</v>
       </c>
       <c r="C33" t="n">
-        <v>171.0</v>
+        <v>169.0</v>
       </c>
       <c r="D33" t="n">
-        <v>13.0</v>
+        <v>11.0</v>
       </c>
       <c r="E33" t="n">
-        <v>526.0</v>
+        <v>889.0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>2430.0</v>
+        <v>3118.0</v>
       </c>
       <c r="B34" t="n">
-        <v>1816.0</v>
+        <v>2118.0</v>
       </c>
       <c r="C34" t="n">
-        <v>202.0</v>
+        <v>191.0</v>
       </c>
       <c r="D34" t="n">
-        <v>14.0</v>
+        <v>11.0</v>
       </c>
       <c r="E34" t="n">
-        <v>600.0</v>
+        <v>989.0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>2641.0</v>
+        <v>3310.0</v>
       </c>
       <c r="B35" t="n">
-        <v>1936.0</v>
+        <v>2205.0</v>
       </c>
       <c r="C35" t="n">
-        <v>211.0</v>
+        <v>192.0</v>
       </c>
       <c r="D35" t="n">
-        <v>15.0</v>
+        <v>12.0</v>
       </c>
       <c r="E35" t="n">
-        <v>690.0</v>
+        <v>1093.0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>2862.0</v>
+        <v>3484.0</v>
       </c>
       <c r="B36" t="n">
-        <v>2060.0</v>
+        <v>2252.0</v>
       </c>
       <c r="C36" t="n">
-        <v>221.0</v>
+        <v>174.0</v>
       </c>
       <c r="D36" t="n">
-        <v>17.0</v>
+        <v>12.0</v>
       </c>
       <c r="E36" t="n">
-        <v>785.0</v>
+        <v>1220.0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>3104.0</v>
+        <v>3731.0</v>
       </c>
       <c r="B37" t="n">
-        <v>2213.0</v>
+        <v>2385.0</v>
       </c>
       <c r="C37" t="n">
-        <v>242.0</v>
+        <v>247.0</v>
       </c>
       <c r="D37" t="n">
-        <v>18.0</v>
+        <v>12.0</v>
       </c>
       <c r="E37" t="n">
-        <v>873.0</v>
+        <v>1334.0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>3366.0</v>
+        <v>3978.0</v>
       </c>
       <c r="B38" t="n">
-        <v>2351.0</v>
+        <v>2523.0</v>
       </c>
       <c r="C38" t="n">
-        <v>262.0</v>
+        <v>247.0</v>
       </c>
       <c r="D38" t="n">
-        <v>18.0</v>
+        <v>13.0</v>
       </c>
       <c r="E38" t="n">
-        <v>997.0</v>
+        <v>1442.0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>3685.0</v>
+        <v>4225.0</v>
       </c>
       <c r="B39" t="n">
-        <v>2541.0</v>
+        <v>2668.0</v>
       </c>
       <c r="C39" t="n">
-        <v>319.0</v>
+        <v>247.0</v>
       </c>
       <c r="D39" t="n">
-        <v>20.0</v>
+        <v>16.0</v>
       </c>
       <c r="E39" t="n">
-        <v>1124.0</v>
+        <v>1541.0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>4002.0</v>
+        <v>4482.0</v>
       </c>
       <c r="B40" t="n">
-        <v>2733.0</v>
+        <v>2788.0</v>
       </c>
       <c r="C40" t="n">
-        <v>317.0</v>
+        <v>257.0</v>
       </c>
       <c r="D40" t="n">
-        <v>23.0</v>
+        <v>18.0</v>
       </c>
       <c r="E40" t="n">
-        <v>1246.0</v>
+        <v>1676.0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>4396.0</v>
+        <v>4788.0</v>
       </c>
       <c r="B41" t="n">
-        <v>3002.0</v>
+        <v>2944.0</v>
       </c>
       <c r="C41" t="n">
-        <v>394.0</v>
+        <v>306.0</v>
       </c>
       <c r="D41" t="n">
-        <v>26.0</v>
+        <v>20.0</v>
       </c>
       <c r="E41" t="n">
-        <v>1368.0</v>
+        <v>1824.0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>4791.0</v>
+        <v>5130.0</v>
       </c>
       <c r="B42" t="n">
-        <v>3249.0</v>
+        <v>3146.0</v>
       </c>
       <c r="C42" t="n">
-        <v>395.0</v>
+        <v>342.0</v>
       </c>
       <c r="D42" t="n">
-        <v>28.0</v>
+        <v>22.0</v>
       </c>
       <c r="E42" t="n">
-        <v>1514.0</v>
+        <v>1962.0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>5220.0</v>
+        <v>5506.0</v>
       </c>
       <c r="B43" t="n">
-        <v>3528.0</v>
+        <v>3364.0</v>
       </c>
       <c r="C43" t="n">
-        <v>429.0</v>
+        <v>376.0</v>
       </c>
       <c r="D43" t="n">
-        <v>29.0</v>
+        <v>22.0</v>
       </c>
       <c r="E43" t="n">
-        <v>1663.0</v>
+        <v>2120.0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>5697.0</v>
+        <v>5873.0</v>
       </c>
       <c r="B44" t="n">
-        <v>3822.0</v>
+        <v>3576.0</v>
       </c>
       <c r="C44" t="n">
-        <v>477.0</v>
+        <v>367.0</v>
       </c>
       <c r="D44" t="n">
-        <v>34.0</v>
+        <v>24.0</v>
       </c>
       <c r="E44" t="n">
-        <v>1841.0</v>
+        <v>2273.0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>6182.0</v>
+        <v>6262.0</v>
       </c>
       <c r="B45" t="n">
-        <v>4129.0</v>
+        <v>3791.0</v>
       </c>
       <c r="C45" t="n">
-        <v>485.0</v>
+        <v>389.0</v>
       </c>
       <c r="D45" t="n">
-        <v>39.0</v>
+        <v>26.0</v>
       </c>
       <c r="E45" t="n">
-        <v>2014.0</v>
+        <v>2445.0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>6731.0</v>
+        <v>6715.0</v>
       </c>
       <c r="B46" t="n">
-        <v>4493.0</v>
+        <v>4073.0</v>
       </c>
       <c r="C46" t="n">
-        <v>549.0</v>
+        <v>453.0</v>
       </c>
       <c r="D46" t="n">
-        <v>43.0</v>
+        <v>27.0</v>
       </c>
       <c r="E46" t="n">
-        <v>2195.0</v>
+        <v>2615.0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>7340.0</v>
+        <v>7231.0</v>
       </c>
       <c r="B47" t="n">
-        <v>4885.0</v>
+        <v>4405.0</v>
       </c>
       <c r="C47" t="n">
-        <v>609.0</v>
+        <v>516.0</v>
       </c>
       <c r="D47" t="n">
-        <v>49.0</v>
+        <v>29.0</v>
       </c>
       <c r="E47" t="n">
-        <v>2406.0</v>
+        <v>2797.0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>8009.0</v>
+        <v>7779.0</v>
       </c>
       <c r="B48" t="n">
-        <v>5317.0</v>
+        <v>4742.0</v>
       </c>
       <c r="C48" t="n">
-        <v>669.0</v>
+        <v>548.0</v>
       </c>
       <c r="D48" t="n">
-        <v>50.0</v>
+        <v>32.0</v>
       </c>
       <c r="E48" t="n">
-        <v>2642.0</v>
+        <v>3005.0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>8748.0</v>
+        <v>8377.0</v>
       </c>
       <c r="B49" t="n">
-        <v>5809.0</v>
+        <v>5131.0</v>
       </c>
       <c r="C49" t="n">
-        <v>739.0</v>
+        <v>598.0</v>
       </c>
       <c r="D49" t="n">
-        <v>51.0</v>
+        <v>33.0</v>
       </c>
       <c r="E49" t="n">
-        <v>2888.0</v>
+        <v>3213.0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>9577.0</v>
+        <v>8985.0</v>
       </c>
       <c r="B50" t="n">
-        <v>6360.0</v>
+        <v>5508.0</v>
       </c>
       <c r="C50" t="n">
-        <v>829.0</v>
+        <v>608.0</v>
       </c>
       <c r="D50" t="n">
-        <v>62.0</v>
+        <v>33.0</v>
       </c>
       <c r="E50" t="n">
-        <v>3155.0</v>
+        <v>3444.0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>10477.0</v>
+        <v>9666.0</v>
       </c>
       <c r="B51" t="n">
-        <v>6942.0</v>
+        <v>5926.0</v>
       </c>
       <c r="C51" t="n">
-        <v>900.0</v>
+        <v>681.0</v>
       </c>
       <c r="D51" t="n">
-        <v>68.0</v>
+        <v>38.0</v>
       </c>
       <c r="E51" t="n">
-        <v>3467.0</v>
+        <v>3702.0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>11393.0</v>
+        <v>10417.0</v>
       </c>
       <c r="B52" t="n">
-        <v>7553.0</v>
+        <v>6413.0</v>
       </c>
       <c r="C52" t="n">
-        <v>916.0</v>
+        <v>751.0</v>
       </c>
       <c r="D52" t="n">
-        <v>76.0</v>
+        <v>39.0</v>
       </c>
       <c r="E52" t="n">
-        <v>3764.0</v>
+        <v>3965.0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>12371.0</v>
+        <v>11208.0</v>
       </c>
       <c r="B53" t="n">
-        <v>8183.0</v>
+        <v>6908.0</v>
       </c>
       <c r="C53" t="n">
-        <v>978.0</v>
+        <v>791.0</v>
       </c>
       <c r="D53" t="n">
-        <v>82.0</v>
+        <v>41.0</v>
       </c>
       <c r="E53" t="n">
-        <v>4106.0</v>
+        <v>4259.0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>13413.0</v>
+        <v>12047.0</v>
       </c>
       <c r="B54" t="n">
-        <v>8839.0</v>
+        <v>7407.0</v>
       </c>
       <c r="C54" t="n">
-        <v>1042.0</v>
+        <v>839.0</v>
       </c>
       <c r="D54" t="n">
-        <v>88.0</v>
+        <v>43.0</v>
       </c>
       <c r="E54" t="n">
-        <v>4486.0</v>
+        <v>4597.0</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>14562.0</v>
+        <v>12963.0</v>
       </c>
       <c r="B55" t="n">
-        <v>9590.0</v>
+        <v>7979.0</v>
       </c>
       <c r="C55" t="n">
-        <v>1149.0</v>
+        <v>916.0</v>
       </c>
       <c r="D55" t="n">
-        <v>96.0</v>
+        <v>48.0</v>
       </c>
       <c r="E55" t="n">
-        <v>4876.0</v>
+        <v>4936.0</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>15740.0</v>
+        <v>13900.0</v>
       </c>
       <c r="B56" t="n">
-        <v>10324.0</v>
+        <v>8558.0</v>
       </c>
       <c r="C56" t="n">
-        <v>1178.0</v>
+        <v>937.0</v>
       </c>
       <c r="D56" t="n">
-        <v>102.0</v>
+        <v>51.0</v>
       </c>
       <c r="E56" t="n">
-        <v>5314.0</v>
+        <v>5291.0</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>17004.0</v>
+        <v>14865.0</v>
       </c>
       <c r="B57" t="n">
-        <v>11107.0</v>
+        <v>9149.0</v>
       </c>
       <c r="C57" t="n">
-        <v>1264.0</v>
+        <v>965.0</v>
       </c>
       <c r="D57" t="n">
-        <v>112.0</v>
+        <v>53.0</v>
       </c>
       <c r="E57" t="n">
-        <v>5785.0</v>
+        <v>5663.0</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>18337.0</v>
+        <v>15849.0</v>
       </c>
       <c r="B58" t="n">
-        <v>11922.0</v>
+        <v>9681.0</v>
       </c>
       <c r="C58" t="n">
-        <v>1333.0</v>
+        <v>984.0</v>
       </c>
       <c r="D58" t="n">
-        <v>118.0</v>
+        <v>58.0</v>
       </c>
       <c r="E58" t="n">
-        <v>6297.0</v>
+        <v>6110.0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>19674.0</v>
+        <v>16894.0</v>
       </c>
       <c r="B59" t="n">
-        <v>12689.0</v>
+        <v>10226.0</v>
       </c>
       <c r="C59" t="n">
-        <v>1337.0</v>
+        <v>1045.0</v>
       </c>
       <c r="D59" t="n">
-        <v>131.0</v>
+        <v>63.0</v>
       </c>
       <c r="E59" t="n">
-        <v>6854.0</v>
+        <v>6605.0</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>21070.0</v>
+        <v>17990.0</v>
       </c>
       <c r="B60" t="n">
-        <v>13477.0</v>
+        <v>10823.0</v>
       </c>
       <c r="C60" t="n">
-        <v>1396.0</v>
+        <v>1096.0</v>
       </c>
       <c r="D60" t="n">
-        <v>142.0</v>
+        <v>69.0</v>
       </c>
       <c r="E60" t="n">
-        <v>7451.0</v>
+        <v>7098.0</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>22596.0</v>
+        <v>19151.0</v>
       </c>
       <c r="B61" t="n">
-        <v>14281.0</v>
+        <v>11473.0</v>
       </c>
       <c r="C61" t="n">
-        <v>1526.0</v>
+        <v>1161.0</v>
       </c>
       <c r="D61" t="n">
-        <v>153.0</v>
+        <v>79.0</v>
       </c>
       <c r="E61" t="n">
-        <v>8162.0</v>
+        <v>7599.0</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>24200.0</v>
+        <v>20337.0</v>
       </c>
       <c r="B62" t="n">
-        <v>15133.0</v>
+        <v>12055.0</v>
       </c>
       <c r="C62" t="n">
+        <v>1186.0</v>
+      </c>
+      <c r="D62" t="n">
+        <v>89.0</v>
+      </c>
+      <c r="E62" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>21573.0</v>
+      </c>
+      <c r="B63" t="n">
+        <v>12673.0</v>
+      </c>
+      <c r="C63" t="n">
+        <v>1236.0</v>
+      </c>
+      <c r="D63" t="n">
+        <v>95.0</v>
+      </c>
+      <c r="E63" t="n">
+        <v>8805.0</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>22822.0</v>
+      </c>
+      <c r="B64" t="n">
+        <v>13229.0</v>
+      </c>
+      <c r="C64" t="n">
+        <v>1249.0</v>
+      </c>
+      <c r="D64" t="n">
+        <v>101.0</v>
+      </c>
+      <c r="E64" t="n">
+        <v>9492.0</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>24195.0</v>
+      </c>
+      <c r="B65" t="n">
+        <v>13851.0</v>
+      </c>
+      <c r="C65" t="n">
+        <v>1373.0</v>
+      </c>
+      <c r="D65" t="n">
+        <v>109.0</v>
+      </c>
+      <c r="E65" t="n">
+        <v>10235.0</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>25559.0</v>
+      </c>
+      <c r="B66" t="n">
+        <v>14424.0</v>
+      </c>
+      <c r="C66" t="n">
+        <v>1364.0</v>
+      </c>
+      <c r="D66" t="n">
+        <v>117.0</v>
+      </c>
+      <c r="E66" t="n">
+        <v>11018.0</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>1369.0</v>
+      </c>
+      <c r="B67" t="n">
+        <v>444.0</v>
+      </c>
+      <c r="C67" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="D67" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="E67" t="n">
+        <v>912.0</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>1394.0</v>
+      </c>
+      <c r="B68" t="n">
+        <v>445.0</v>
+      </c>
+      <c r="C68" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="D68" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="E68" t="n">
+        <v>936.0</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>1415.0</v>
+      </c>
+      <c r="B69" t="n">
+        <v>451.0</v>
+      </c>
+      <c r="C69" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="D69" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="E69" t="n">
+        <v>951.0</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>1456.0</v>
+      </c>
+      <c r="B70" t="n">
+        <v>466.0</v>
+      </c>
+      <c r="C70" t="n">
+        <v>41.0</v>
+      </c>
+      <c r="D70" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="E70" t="n">
+        <v>976.0</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>1488.0</v>
+      </c>
+      <c r="B71" t="n">
+        <v>483.0</v>
+      </c>
+      <c r="C71" t="n">
+        <v>32.0</v>
+      </c>
+      <c r="D71" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="E71" t="n">
+        <v>990.0</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>1526.0</v>
+      </c>
+      <c r="B72" t="n">
+        <v>508.0</v>
+      </c>
+      <c r="C72" t="n">
+        <v>38.0</v>
+      </c>
+      <c r="D72" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="E72" t="n">
+        <v>1003.0</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>1560.0</v>
+      </c>
+      <c r="B73" t="n">
+        <v>518.0</v>
+      </c>
+      <c r="C73" t="n">
+        <v>34.0</v>
+      </c>
+      <c r="D73" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="E73" t="n">
+        <v>1026.0</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>1596.0</v>
+      </c>
+      <c r="B74" t="n">
+        <v>530.0</v>
+      </c>
+      <c r="C74" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="D74" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="E74" t="n">
+        <v>1050.0</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>1637.0</v>
+      </c>
+      <c r="B75" t="n">
+        <v>548.0</v>
+      </c>
+      <c r="C75" t="n">
+        <v>41.0</v>
+      </c>
+      <c r="D75" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="E75" t="n">
+        <v>1073.0</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>1674.0</v>
+      </c>
+      <c r="B76" t="n">
+        <v>565.0</v>
+      </c>
+      <c r="C76" t="n">
+        <v>37.0</v>
+      </c>
+      <c r="D76" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="E76" t="n">
+        <v>1093.0</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>1723.0</v>
+      </c>
+      <c r="B77" t="n">
+        <v>583.0</v>
+      </c>
+      <c r="C77" t="n">
+        <v>49.0</v>
+      </c>
+      <c r="D77" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="E77" t="n">
+        <v>1124.0</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>1775.0</v>
+      </c>
+      <c r="B78" t="n">
+        <v>603.0</v>
+      </c>
+      <c r="C78" t="n">
+        <v>52.0</v>
+      </c>
+      <c r="D78" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="E78" t="n">
+        <v>1155.0</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>1827.0</v>
+      </c>
+      <c r="B79" t="n">
+        <v>630.0</v>
+      </c>
+      <c r="C79" t="n">
+        <v>52.0</v>
+      </c>
+      <c r="D79" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="E79" t="n">
+        <v>1180.0</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>1879.0</v>
+      </c>
+      <c r="B80" t="n">
+        <v>660.0</v>
+      </c>
+      <c r="C80" t="n">
+        <v>52.0</v>
+      </c>
+      <c r="D80" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="E80" t="n">
+        <v>1201.0</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>1935.0</v>
+      </c>
+      <c r="B81" t="n">
+        <v>690.0</v>
+      </c>
+      <c r="C81" t="n">
+        <v>56.0</v>
+      </c>
+      <c r="D81" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="E81" t="n">
+        <v>1227.0</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>1989.0</v>
+      </c>
+      <c r="B82" t="n">
+        <v>715.0</v>
+      </c>
+      <c r="C82" t="n">
+        <v>54.0</v>
+      </c>
+      <c r="D82" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="E82" t="n">
+        <v>1256.0</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>2057.0</v>
+      </c>
+      <c r="B83" t="n">
+        <v>752.0</v>
+      </c>
+      <c r="C83" t="n">
+        <v>68.0</v>
+      </c>
+      <c r="D83" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="E83" t="n">
+        <v>1285.0</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>2127.0</v>
+      </c>
+      <c r="B84" t="n">
+        <v>786.0</v>
+      </c>
+      <c r="C84" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="D84" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="E84" t="n">
+        <v>1321.0</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>2185.0</v>
+      </c>
+      <c r="B85" t="n">
+        <v>809.0</v>
+      </c>
+      <c r="C85" t="n">
+        <v>58.0</v>
+      </c>
+      <c r="D85" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="E85" t="n">
+        <v>1356.0</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>2256.0</v>
+      </c>
+      <c r="B86" t="n">
+        <v>844.0</v>
+      </c>
+      <c r="C86" t="n">
+        <v>71.0</v>
+      </c>
+      <c r="D86" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="E86" t="n">
+        <v>1390.0</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>2317.0</v>
+      </c>
+      <c r="B87" t="n">
+        <v>877.0</v>
+      </c>
+      <c r="C87" t="n">
+        <v>61.0</v>
+      </c>
+      <c r="D87" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="E87" t="n">
+        <v>1418.0</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>2386.0</v>
+      </c>
+      <c r="B88" t="n">
+        <v>895.0</v>
+      </c>
+      <c r="C88" t="n">
+        <v>69.0</v>
+      </c>
+      <c r="D88" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="E88" t="n">
+        <v>1468.0</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>2464.0</v>
+      </c>
+      <c r="B89" t="n">
+        <v>935.0</v>
+      </c>
+      <c r="C89" t="n">
+        <v>78.0</v>
+      </c>
+      <c r="D89" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="E89" t="n">
+        <v>1504.0</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>2541.0</v>
+      </c>
+      <c r="B90" t="n">
+        <v>965.0</v>
+      </c>
+      <c r="C90" t="n">
+        <v>77.0</v>
+      </c>
+      <c r="D90" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="E90" t="n">
+        <v>1551.0</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>2615.0</v>
+      </c>
+      <c r="B91" t="n">
+        <v>986.0</v>
+      </c>
+      <c r="C91" t="n">
+        <v>74.0</v>
+      </c>
+      <c r="D91" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="E91" t="n">
         <v>1604.0</v>
       </c>
-      <c r="D62" t="n">
-        <v>164.0</v>
-      </c>
-      <c r="E62" t="n">
-        <v>8903.0</v>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>2680.0</v>
+      </c>
+      <c r="B92" t="n">
+        <v>1007.0</v>
+      </c>
+      <c r="C92" t="n">
+        <v>65.0</v>
+      </c>
+      <c r="D92" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="E92" t="n">
+        <v>1648.0</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>2775.0</v>
+      </c>
+      <c r="B93" t="n">
+        <v>1059.0</v>
+      </c>
+      <c r="C93" t="n">
+        <v>95.0</v>
+      </c>
+      <c r="D93" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="E93" t="n">
+        <v>1691.0</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>2854.0</v>
+      </c>
+      <c r="B94" t="n">
+        <v>1089.0</v>
+      </c>
+      <c r="C94" t="n">
+        <v>79.0</v>
+      </c>
+      <c r="D94" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="E94" t="n">
+        <v>1740.0</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>2958.0</v>
+      </c>
+      <c r="B95" t="n">
+        <v>1135.0</v>
+      </c>
+      <c r="C95" t="n">
+        <v>104.0</v>
+      </c>
+      <c r="D95" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="E95" t="n">
+        <v>1798.0</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>3062.0</v>
+      </c>
+      <c r="B96" t="n">
+        <v>1173.0</v>
+      </c>
+      <c r="C96" t="n">
+        <v>104.0</v>
+      </c>
+      <c r="D96" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="E96" t="n">
+        <v>1864.0</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>3174.0</v>
+      </c>
+      <c r="B97" t="n">
+        <v>1223.0</v>
+      </c>
+      <c r="C97" t="n">
+        <v>112.0</v>
+      </c>
+      <c r="D97" t="n">
+        <v>27.0</v>
+      </c>
+      <c r="E97" t="n">
+        <v>1924.0</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>3261.0</v>
+      </c>
+      <c r="B98" t="n">
+        <v>1237.0</v>
+      </c>
+      <c r="C98" t="n">
+        <v>87.0</v>
+      </c>
+      <c r="D98" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="E98" t="n">
+        <v>1996.0</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>3356.0</v>
+      </c>
+      <c r="B99" t="n">
+        <v>1280.0</v>
+      </c>
+      <c r="C99" t="n">
+        <v>95.0</v>
+      </c>
+      <c r="D99" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="E99" t="n">
+        <v>2048.0</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>3460.0</v>
+      </c>
+      <c r="B100" t="n">
+        <v>1321.0</v>
+      </c>
+      <c r="C100" t="n">
+        <v>104.0</v>
+      </c>
+      <c r="D100" t="n">
+        <v>29.0</v>
+      </c>
+      <c r="E100" t="n">
+        <v>2110.0</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>3564.0</v>
+      </c>
+      <c r="B101" t="n">
+        <v>1346.0</v>
+      </c>
+      <c r="C101" t="n">
+        <v>104.0</v>
+      </c>
+      <c r="D101" t="n">
+        <v>29.0</v>
+      </c>
+      <c r="E101" t="n">
+        <v>2189.0</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>3677.0</v>
+      </c>
+      <c r="B102" t="n">
+        <v>1381.0</v>
+      </c>
+      <c r="C102" t="n">
+        <v>113.0</v>
+      </c>
+      <c r="D102" t="n">
+        <v>31.0</v>
+      </c>
+      <c r="E102" t="n">
+        <v>2265.0</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>3790.0</v>
+      </c>
+      <c r="B103" t="n">
+        <v>1411.0</v>
+      </c>
+      <c r="C103" t="n">
+        <v>113.0</v>
+      </c>
+      <c r="D103" t="n">
+        <v>33.0</v>
+      </c>
+      <c r="E103" t="n">
+        <v>2346.0</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>3903.0</v>
+      </c>
+      <c r="B104" t="n">
+        <v>1441.0</v>
+      </c>
+      <c r="C104" t="n">
+        <v>113.0</v>
+      </c>
+      <c r="D104" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="E104" t="n">
+        <v>2426.0</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>4001.0</v>
+      </c>
+      <c r="B105" t="n">
+        <v>1456.0</v>
+      </c>
+      <c r="C105" t="n">
+        <v>98.0</v>
+      </c>
+      <c r="D105" t="n">
+        <v>37.0</v>
+      </c>
+      <c r="E105" t="n">
+        <v>2508.0</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>4142.0</v>
+      </c>
+      <c r="B106" t="n">
+        <v>1507.0</v>
+      </c>
+      <c r="C106" t="n">
+        <v>141.0</v>
+      </c>
+      <c r="D106" t="n">
+        <v>39.0</v>
+      </c>
+      <c r="E106" t="n">
+        <v>2596.0</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>4262.0</v>
+      </c>
+      <c r="B107" t="n">
+        <v>1548.0</v>
+      </c>
+      <c r="C107" t="n">
+        <v>120.0</v>
+      </c>
+      <c r="D107" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="E107" t="n">
+        <v>2674.0</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>4417.0</v>
+      </c>
+      <c r="B108" t="n">
+        <v>1602.0</v>
+      </c>
+      <c r="C108" t="n">
+        <v>155.0</v>
+      </c>
+      <c r="D108" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="E108" t="n">
+        <v>2775.0</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>4547.0</v>
+      </c>
+      <c r="B109" t="n">
+        <v>1643.0</v>
+      </c>
+      <c r="C109" t="n">
+        <v>130.0</v>
+      </c>
+      <c r="D109" t="n">
+        <v>42.0</v>
+      </c>
+      <c r="E109" t="n">
+        <v>2862.0</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>4706.0</v>
+      </c>
+      <c r="B110" t="n">
+        <v>1697.0</v>
+      </c>
+      <c r="C110" t="n">
+        <v>159.0</v>
+      </c>
+      <c r="D110" t="n">
+        <v>44.0</v>
+      </c>
+      <c r="E110" t="n">
+        <v>2965.0</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>4861.0</v>
+      </c>
+      <c r="B111" t="n">
+        <v>1749.0</v>
+      </c>
+      <c r="C111" t="n">
+        <v>155.0</v>
+      </c>
+      <c r="D111" t="n">
+        <v>45.0</v>
+      </c>
+      <c r="E111" t="n">
+        <v>3067.0</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>5039.0</v>
+      </c>
+      <c r="B112" t="n">
+        <v>1830.0</v>
+      </c>
+      <c r="C112" t="n">
+        <v>178.0</v>
+      </c>
+      <c r="D112" t="n">
+        <v>46.0</v>
+      </c>
+      <c r="E112" t="n">
+        <v>3163.0</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>5217.0</v>
+      </c>
+      <c r="B113" t="n">
+        <v>1909.0</v>
+      </c>
+      <c r="C113" t="n">
+        <v>178.0</v>
+      </c>
+      <c r="D113" t="n">
+        <v>46.0</v>
+      </c>
+      <c r="E113" t="n">
+        <v>3262.0</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>5419.0</v>
+      </c>
+      <c r="B114" t="n">
+        <v>2005.0</v>
+      </c>
+      <c r="C114" t="n">
+        <v>202.0</v>
+      </c>
+      <c r="D114" t="n">
+        <v>48.0</v>
+      </c>
+      <c r="E114" t="n">
+        <v>3366.0</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="n">
+        <v>5621.0</v>
+      </c>
+      <c r="B115" t="n">
+        <v>2102.0</v>
+      </c>
+      <c r="C115" t="n">
+        <v>202.0</v>
+      </c>
+      <c r="D115" t="n">
+        <v>48.0</v>
+      </c>
+      <c r="E115" t="n">
+        <v>3471.0</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="n">
+        <v>5804.0</v>
+      </c>
+      <c r="B116" t="n">
+        <v>2173.0</v>
+      </c>
+      <c r="C116" t="n">
+        <v>183.0</v>
+      </c>
+      <c r="D116" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="E116" t="n">
+        <v>3581.0</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="n">
+        <v>6012.0</v>
+      </c>
+      <c r="B117" t="n">
+        <v>2264.0</v>
+      </c>
+      <c r="C117" t="n">
+        <v>208.0</v>
+      </c>
+      <c r="D117" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="E117" t="n">
+        <v>3698.0</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="n">
+        <v>6251.0</v>
+      </c>
+      <c r="B118" t="n">
+        <v>2377.0</v>
+      </c>
+      <c r="C118" t="n">
+        <v>239.0</v>
+      </c>
+      <c r="D118" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="E118" t="n">
+        <v>3824.0</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="n">
+        <v>6558.0</v>
+      </c>
+      <c r="B119" t="n">
+        <v>2548.0</v>
+      </c>
+      <c r="C119" t="n">
+        <v>307.0</v>
+      </c>
+      <c r="D119" t="n">
+        <v>52.0</v>
+      </c>
+      <c r="E119" t="n">
+        <v>3958.0</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="n">
+        <v>6853.0</v>
+      </c>
+      <c r="B120" t="n">
+        <v>2709.0</v>
+      </c>
+      <c r="C120" t="n">
+        <v>295.0</v>
+      </c>
+      <c r="D120" t="n">
+        <v>53.0</v>
+      </c>
+      <c r="E120" t="n">
+        <v>4091.0</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="n">
+        <v>7150.0</v>
+      </c>
+      <c r="B121" t="n">
+        <v>2880.0</v>
+      </c>
+      <c r="C121" t="n">
+        <v>297.0</v>
+      </c>
+      <c r="D121" t="n">
+        <v>56.0</v>
+      </c>
+      <c r="E121" t="n">
+        <v>4214.0</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="n">
+        <v>7500.0</v>
+      </c>
+      <c r="B122" t="n">
+        <v>3074.0</v>
+      </c>
+      <c r="C122" t="n">
+        <v>350.0</v>
+      </c>
+      <c r="D122" t="n">
+        <v>58.0</v>
+      </c>
+      <c r="E122" t="n">
+        <v>4368.0</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="n">
+        <v>7847.0</v>
+      </c>
+      <c r="B123" t="n">
+        <v>3279.0</v>
+      </c>
+      <c r="C123" t="n">
+        <v>347.0</v>
+      </c>
+      <c r="D123" t="n">
+        <v>60.0</v>
+      </c>
+      <c r="E123" t="n">
+        <v>4508.0</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="n">
+        <v>8190.0</v>
+      </c>
+      <c r="B124" t="n">
+        <v>3459.0</v>
+      </c>
+      <c r="C124" t="n">
+        <v>343.0</v>
+      </c>
+      <c r="D124" t="n">
+        <v>62.0</v>
+      </c>
+      <c r="E124" t="n">
+        <v>4669.0</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="n">
+        <v>8565.0</v>
+      </c>
+      <c r="B125" t="n">
+        <v>3647.0</v>
+      </c>
+      <c r="C125" t="n">
+        <v>375.0</v>
+      </c>
+      <c r="D125" t="n">
+        <v>65.0</v>
+      </c>
+      <c r="E125" t="n">
+        <v>4853.0</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="n">
+        <v>8938.0</v>
+      </c>
+      <c r="B126" t="n">
+        <v>3838.0</v>
+      </c>
+      <c r="C126" t="n">
+        <v>373.0</v>
+      </c>
+      <c r="D126" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="E126" t="n">
+        <v>5030.0</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="n">
+        <v>9318.0</v>
+      </c>
+      <c r="B127" t="n">
+        <v>4023.0</v>
+      </c>
+      <c r="C127" t="n">
+        <v>380.0</v>
+      </c>
+      <c r="D127" t="n">
+        <v>73.0</v>
+      </c>
+      <c r="E127" t="n">
+        <v>5222.0</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="n">
+        <v>9778.0</v>
+      </c>
+      <c r="B128" t="n">
+        <v>4277.0</v>
+      </c>
+      <c r="C128" t="n">
+        <v>460.0</v>
+      </c>
+      <c r="D128" t="n">
+        <v>73.0</v>
+      </c>
+      <c r="E128" t="n">
+        <v>5428.0</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="n">
+        <v>10233.0</v>
+      </c>
+      <c r="B129" t="n">
+        <v>4513.0</v>
+      </c>
+      <c r="C129" t="n">
+        <v>455.0</v>
+      </c>
+      <c r="D129" t="n">
+        <v>75.0</v>
+      </c>
+      <c r="E129" t="n">
+        <v>5645.0</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="n">
+        <v>10706.0</v>
+      </c>
+      <c r="B130" t="n">
+        <v>4716.0</v>
+      </c>
+      <c r="C130" t="n">
+        <v>473.0</v>
+      </c>
+      <c r="D130" t="n">
+        <v>77.0</v>
+      </c>
+      <c r="E130" t="n">
+        <v>5913.0</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="n">
+        <v>11170.0</v>
+      </c>
+      <c r="B131" t="n">
+        <v>4922.0</v>
+      </c>
+      <c r="C131" t="n">
+        <v>464.0</v>
+      </c>
+      <c r="D131" t="n">
+        <v>80.0</v>
+      </c>
+      <c r="E131" t="n">
+        <v>6168.0</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="n">
+        <v>11683.0</v>
+      </c>
+      <c r="B132" t="n">
+        <v>5167.0</v>
+      </c>
+      <c r="C132" t="n">
+        <v>513.0</v>
+      </c>
+      <c r="D132" t="n">
+        <v>87.0</v>
+      </c>
+      <c r="E132" t="n">
+        <v>6429.0</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="n">
+        <v>12154.0</v>
+      </c>
+      <c r="B133" t="n">
+        <v>5344.0</v>
+      </c>
+      <c r="C133" t="n">
+        <v>471.0</v>
+      </c>
+      <c r="D133" t="n">
+        <v>90.0</v>
+      </c>
+      <c r="E133" t="n">
+        <v>6720.0</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="n">
+        <v>12680.0</v>
+      </c>
+      <c r="B134" t="n">
+        <v>5599.0</v>
+      </c>
+      <c r="C134" t="n">
+        <v>526.0</v>
+      </c>
+      <c r="D134" t="n">
+        <v>93.0</v>
+      </c>
+      <c r="E134" t="n">
+        <v>6988.0</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="n">
+        <v>13197.0</v>
+      </c>
+      <c r="B135" t="n">
+        <v>5802.0</v>
+      </c>
+      <c r="C135" t="n">
+        <v>517.0</v>
+      </c>
+      <c r="D135" t="n">
+        <v>96.0</v>
+      </c>
+      <c r="E135" t="n">
+        <v>7299.0</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="n">
+        <v>13788.0</v>
+      </c>
+      <c r="B136" t="n">
+        <v>6097.0</v>
+      </c>
+      <c r="C136" t="n">
+        <v>591.0</v>
+      </c>
+      <c r="D136" t="n">
+        <v>100.0</v>
+      </c>
+      <c r="E136" t="n">
+        <v>7591.0</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="n">
+        <v>14370.0</v>
+      </c>
+      <c r="B137" t="n">
+        <v>6295.0</v>
+      </c>
+      <c r="C137" t="n">
+        <v>582.0</v>
+      </c>
+      <c r="D137" t="n">
+        <v>103.0</v>
+      </c>
+      <c r="E137" t="n">
+        <v>7972.0</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="n">
+        <v>14920.0</v>
+      </c>
+      <c r="B138" t="n">
+        <v>6477.0</v>
+      </c>
+      <c r="C138" t="n">
+        <v>550.0</v>
+      </c>
+      <c r="D138" t="n">
+        <v>108.0</v>
+      </c>
+      <c r="E138" t="n">
+        <v>8335.0</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="n">
+        <v>15497.0</v>
+      </c>
+      <c r="B139" t="n">
+        <v>6681.0</v>
+      </c>
+      <c r="C139" t="n">
+        <v>577.0</v>
+      </c>
+      <c r="D139" t="n">
+        <v>115.0</v>
+      </c>
+      <c r="E139" t="n">
+        <v>8701.0</v>
       </c>
     </row>
   </sheetData>
